--- a/IEA-3.4-130-RWT/Optimus_HH140_D178/DLC_4_2/Wind_preperation.xlsx
+++ b/IEA-3.4-130-RWT/Optimus_HH140_D178/DLC_4_2/Wind_preperation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masters\2024\3rd semester\WEC Development Project 202425 (WiSe 2024)\Local repos\Optimus2024\IEA-3.4-130-RWT\Optimus_HH140_D178\DLC_4_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A4DC25-2286-4AAB-BF1F-6B7C09E11723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD36C9CF-BEC2-4428-94DB-3A6815A11F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3510" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{BB01B48E-3559-49FD-94B4-E017B99DE7F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{BB01B48E-3559-49FD-94B4-E017B99DE7F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,11 @@
     <sheet name="13ms" sheetId="4" r:id="rId3"/>
     <sheet name="EOG (7.4)" sheetId="7" r:id="rId4"/>
     <sheet name="EOG (11.4)" sheetId="8" r:id="rId5"/>
-    <sheet name="EOG (25)" sheetId="6" r:id="rId6"/>
-    <sheet name="EOG (9)" sheetId="9" r:id="rId7"/>
-    <sheet name="EOG (13)" sheetId="10" r:id="rId8"/>
+    <sheet name="EOG 18)" sheetId="11" r:id="rId6"/>
+    <sheet name="EOG (25)" sheetId="6" r:id="rId7"/>
+    <sheet name="EOG (9)" sheetId="9" r:id="rId8"/>
+    <sheet name="EOG (13)" sheetId="10" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -54,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="47">
   <si>
     <t>v_rated</t>
   </si>
@@ -675,6 +673,753 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Vout</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'EOG (13)'!$K$2:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EOG (13)'!$O$2:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.373187290571739</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.145140768209124</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.552619774585821</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.469418611104867</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.946272348942479</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.857407007450536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.662253418687101</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.306360334770485</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.911060634162098</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A84-49B6-8FBE-9BC9568E8825}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Vhub-2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'EOG (13)'!$K$2:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EOG (13)'!$M$2:$M$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.7074874022668105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6677323584975916</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.8578892281400501</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.619062018515605</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.174927096173157</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.200123270143585</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.4423849287206458</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.2096348228928928</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.9584949626089792</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A84-49B6-8FBE-9BC9568E8825}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Vhub+2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'EOG (13)'!$K$2:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'EOG (13)'!$N$2:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.623912374343043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.287084460925476</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.531571864751493</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.081651166662921</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.367763409365487</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.114444204470324</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10.99735205121226</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11.983816200862289</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12.946636380497258</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3A84-49B6-8FBE-9BC9568E8825}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1908079096"/>
+        <c:axId val="1908080536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1908079096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time, t [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1908080536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1908080536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Vhub [m/s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1908079096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3620,7 +4365,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'EOG (25)'!$K$2:$K$16</c:f>
+              <c:f>'EOG 18)'!$K$2:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3674,54 +4419,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'EOG (25)'!$O$2:$O$16</c:f>
+              <c:f>'EOG 18)'!$O$2:$O$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.373187290571739</c:v>
+                  <c:v>17.519443589438332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.145140768209124</c:v>
+                  <c:v>15.81127458896033</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22.552619774585821</c:v>
+                  <c:v>16.123675160515795</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.469418611104867</c:v>
+                  <c:v>20.659887601847064</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>33.946272348942479</c:v>
+                  <c:v>24.858808800855904</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31.857407007450536</c:v>
+                  <c:v>23.257345372378744</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.662253418687101</c:v>
+                  <c:v>15.441060954326776</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>23.306360334770485</c:v>
+                  <c:v>16.701542923324038</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>24.911060634162098</c:v>
+                  <c:v>17.931813152857607</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3729,7 +4474,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-24C4-4230-A36D-FD068D76722B}"/>
+              <c16:uniqueId val="{00000000-798C-488F-8328-F3019B82428A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3753,7 +4498,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'EOG (25)'!$K$2:$K$16</c:f>
+              <c:f>'EOG 18)'!$K$2:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3807,54 +4552,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'EOG (25)'!$M$2:$M$16</c:f>
+              <c:f>'EOG 18)'!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.7074874022668105</c:v>
+                  <c:v>7.1409174134363189</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.6677323584975916</c:v>
+                  <c:v>6.2199915175264389</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.8578892281400501</c:v>
+                  <c:v>6.3884161734954734</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.619062018515605</c:v>
+                  <c:v>8.8340263592566792</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.174927096173157</c:v>
+                  <c:v>11.097792570896226</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>12.200123270143585</c:v>
+                  <c:v>10.234394896412891</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>7.4000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.4423849287206458</c:v>
+                  <c:v>6.0203980797240018</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.2096348228928928</c:v>
+                  <c:v>6.6999622717051333</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.9584949626089792</c:v>
+                  <c:v>7.3632383954536671</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9</c:v>
+                  <c:v>7.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3862,7 +4607,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-24C4-4230-A36D-FD068D76722B}"/>
+              <c16:uniqueId val="{00000001-798C-488F-8328-F3019B82428A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3886,7 +4631,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'EOG (25)'!$K$2:$K$16</c:f>
+              <c:f>'EOG 18)'!$K$2:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -3940,54 +4685,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'EOG (25)'!$N$2:$N$16</c:f>
+              <c:f>'EOG 18)'!$N$2:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.623912374343043</c:v>
+                  <c:v>11.05734238551255</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.287084460925476</c:v>
+                  <c:v>9.8393436199543221</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.531571864751493</c:v>
+                  <c:v>10.062098810106916</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.081651166662921</c:v>
+                  <c:v>13.296615507403995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18.367763409365487</c:v>
+                  <c:v>16.290628884088555</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>17.114444204470324</c:v>
+                  <c:v>15.148715830739627</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>13.000000000000002</c:v>
+                  <c:v>11.400000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10.99735205121226</c:v>
+                  <c:v>9.5753652022156146</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.983816200862289</c:v>
+                  <c:v>10.474143649674531</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.946636380497258</c:v>
+                  <c:v>11.351379813341946</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3995,7 +4740,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-24C4-4230-A36D-FD068D76722B}"/>
+              <c16:uniqueId val="{00000002-798C-488F-8328-F3019B82428A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4367,7 +5112,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'EOG (9)'!$K$2:$K$16</c:f>
+              <c:f>'EOG (25)'!$K$2:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4421,7 +5166,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'EOG (9)'!$O$2:$O$16</c:f>
+              <c:f>'EOG (25)'!$O$2:$O$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4476,7 +5221,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7302-4E14-B762-F4BF79258034}"/>
+              <c16:uniqueId val="{00000002-24C4-4230-A36D-FD068D76722B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4500,7 +5245,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'EOG (9)'!$K$2:$K$16</c:f>
+              <c:f>'EOG (25)'!$K$2:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4554,7 +5299,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'EOG (9)'!$M$2:$M$16</c:f>
+              <c:f>'EOG (25)'!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4609,7 +5354,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7302-4E14-B762-F4BF79258034}"/>
+              <c16:uniqueId val="{00000003-24C4-4230-A36D-FD068D76722B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4633,7 +5378,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'EOG (9)'!$K$2:$K$16</c:f>
+              <c:f>'EOG (25)'!$K$2:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4687,7 +5432,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'EOG (9)'!$N$2:$N$16</c:f>
+              <c:f>'EOG (25)'!$N$2:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -4742,7 +5487,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7302-4E14-B762-F4BF79258034}"/>
+              <c16:uniqueId val="{00000004-24C4-4230-A36D-FD068D76722B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5114,7 +5859,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'EOG (13)'!$K$2:$K$16</c:f>
+              <c:f>'EOG (9)'!$K$2:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5168,7 +5913,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'EOG (13)'!$O$2:$O$16</c:f>
+              <c:f>'EOG (9)'!$O$2:$O$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5223,7 +5968,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3A84-49B6-8FBE-9BC9568E8825}"/>
+              <c16:uniqueId val="{00000000-7302-4E14-B762-F4BF79258034}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5247,7 +5992,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'EOG (13)'!$K$2:$K$16</c:f>
+              <c:f>'EOG (9)'!$K$2:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5301,7 +6046,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'EOG (13)'!$M$2:$M$16</c:f>
+              <c:f>'EOG (9)'!$M$2:$M$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5356,7 +6101,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3A84-49B6-8FBE-9BC9568E8825}"/>
+              <c16:uniqueId val="{00000001-7302-4E14-B762-F4BF79258034}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5380,7 +6125,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'EOG (13)'!$K$2:$K$16</c:f>
+              <c:f>'EOG (9)'!$K$2:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5434,7 +6179,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'EOG (13)'!$N$2:$N$16</c:f>
+              <c:f>'EOG (9)'!$N$2:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -5489,7 +6234,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3A84-49B6-8FBE-9BC9568E8825}"/>
+              <c16:uniqueId val="{00000002-7302-4E14-B762-F4BF79258034}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5861,6 +6606,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6182,6 +6967,522 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11969,6 +13270,401 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DCC5D19-9B70-4B3F-A7CE-E5B904C59938}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15179449" y="5519138"/>
+          <a:ext cx="4122181" cy="1486107"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>527516</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>29696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>304609</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>10776</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31D610B0-4004-4026-B56C-B8E61EF7842E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15310316" y="410696"/>
+          <a:ext cx="4653893" cy="933580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>478933</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>80522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>384266</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>99654</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36E8EA15-A874-46EB-B837-7C020B95094E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15261733" y="2747522"/>
+          <a:ext cx="4172533" cy="590632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>166449</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>56830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>455556</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>104728</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65173C3B-F905-479F-BCB7-A352408DFA32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14949249" y="3485830"/>
+          <a:ext cx="4556307" cy="1952898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>532561</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>128485</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>123417</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{139CFE16-2B35-4856-A8D7-F0BC0D8FEF84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15924961" y="1513915"/>
+          <a:ext cx="3253524" cy="1086002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>426105</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>184337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>565060</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22576</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{578AFA60-7745-42F0-A77D-751F8D9615C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20085705" y="374837"/>
+          <a:ext cx="8063755" cy="1171739"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>463643</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>372164</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>90863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F391738C-5665-4FAB-8FB9-206B4B17A506}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21952043" y="1890994"/>
+          <a:ext cx="2956521" cy="676369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>402164</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>22041</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>168376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{306A374B-4409-48AE-AC32-67E08227D0DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20671364" y="2787106"/>
+          <a:ext cx="6325477" cy="4620270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>360587</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>312963</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39F6637-9531-4646-A951-E12A71675DFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>396649</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>185138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>251630</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>147245</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA0B3EB3-47D0-8236-4840-C7DF6F7C2E93}"/>
             </a:ext>
           </a:extLst>
@@ -12342,7 +14038,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -12737,7 +14433,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -13132,454 +14828,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Tabelle1"/>
-      <sheetName val="9ms"/>
-      <sheetName val="13ms"/>
-      <sheetName val="EOG (9)"/>
-      <sheetName val="EOG (13)"/>
-      <sheetName val="EOG (25)"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="K2">
-            <v>-2</v>
-          </cell>
-          <cell r="M2">
-            <v>9</v>
-          </cell>
-          <cell r="N2">
-            <v>13</v>
-          </cell>
-          <cell r="O2">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="K3">
-            <v>-1</v>
-          </cell>
-          <cell r="M3">
-            <v>9</v>
-          </cell>
-          <cell r="N3">
-            <v>13</v>
-          </cell>
-          <cell r="O3">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="K4">
-            <v>0</v>
-          </cell>
-          <cell r="M4">
-            <v>9</v>
-          </cell>
-          <cell r="N4">
-            <v>13</v>
-          </cell>
-          <cell r="O4">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>1</v>
-          </cell>
-          <cell r="M5">
-            <v>8.7074874022668105</v>
-          </cell>
-          <cell r="N5">
-            <v>12.623912374343043</v>
-          </cell>
-          <cell r="O5">
-            <v>24.373187290571739</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>2</v>
-          </cell>
-          <cell r="M6">
-            <v>7.6677323584975916</v>
-          </cell>
-          <cell r="N6">
-            <v>11.287084460925476</v>
-          </cell>
-          <cell r="O6">
-            <v>22.145140768209124</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="K7">
-            <v>3</v>
-          </cell>
-          <cell r="M7">
-            <v>7.8578892281400501</v>
-          </cell>
-          <cell r="N7">
-            <v>11.531571864751493</v>
-          </cell>
-          <cell r="O7">
-            <v>22.552619774585821</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="K8">
-            <v>4</v>
-          </cell>
-          <cell r="M8">
-            <v>10.619062018515605</v>
-          </cell>
-          <cell r="N8">
-            <v>15.081651166662921</v>
-          </cell>
-          <cell r="O8">
-            <v>28.469418611104867</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="K9">
-            <v>5</v>
-          </cell>
-          <cell r="M9">
-            <v>13.174927096173157</v>
-          </cell>
-          <cell r="N9">
-            <v>18.367763409365487</v>
-          </cell>
-          <cell r="O9">
-            <v>33.946272348942479</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="K10">
-            <v>6</v>
-          </cell>
-          <cell r="M10">
-            <v>12.200123270143585</v>
-          </cell>
-          <cell r="N10">
-            <v>17.114444204470324</v>
-          </cell>
-          <cell r="O10">
-            <v>31.857407007450536</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="K11">
-            <v>7</v>
-          </cell>
-          <cell r="M11">
-            <v>9</v>
-          </cell>
-          <cell r="N11">
-            <v>13.000000000000002</v>
-          </cell>
-          <cell r="O11">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="K12">
-            <v>8</v>
-          </cell>
-          <cell r="M12">
-            <v>7.4423849287206458</v>
-          </cell>
-          <cell r="N12">
-            <v>10.99735205121226</v>
-          </cell>
-          <cell r="O12">
-            <v>21.662253418687101</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="K13">
-            <v>9</v>
-          </cell>
-          <cell r="M13">
-            <v>8.2096348228928928</v>
-          </cell>
-          <cell r="N13">
-            <v>11.983816200862289</v>
-          </cell>
-          <cell r="O13">
-            <v>23.306360334770485</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="K14">
-            <v>10</v>
-          </cell>
-          <cell r="M14">
-            <v>8.9584949626089792</v>
-          </cell>
-          <cell r="N14">
-            <v>12.946636380497258</v>
-          </cell>
-          <cell r="O14">
-            <v>24.911060634162098</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="K15">
-            <v>11</v>
-          </cell>
-          <cell r="M15">
-            <v>9</v>
-          </cell>
-          <cell r="N15">
-            <v>13</v>
-          </cell>
-          <cell r="O15">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="K16">
-            <v>12</v>
-          </cell>
-          <cell r="M16">
-            <v>9</v>
-          </cell>
-          <cell r="N16">
-            <v>13</v>
-          </cell>
-          <cell r="O16">
-            <v>25</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="K2">
-            <v>-2</v>
-          </cell>
-          <cell r="M2">
-            <v>9</v>
-          </cell>
-          <cell r="N2">
-            <v>13</v>
-          </cell>
-          <cell r="O2">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="K3">
-            <v>-1</v>
-          </cell>
-          <cell r="M3">
-            <v>9</v>
-          </cell>
-          <cell r="N3">
-            <v>13</v>
-          </cell>
-          <cell r="O3">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="K4">
-            <v>0</v>
-          </cell>
-          <cell r="M4">
-            <v>9</v>
-          </cell>
-          <cell r="N4">
-            <v>13</v>
-          </cell>
-          <cell r="O4">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="K5">
-            <v>1</v>
-          </cell>
-          <cell r="M5">
-            <v>8.7074874022668105</v>
-          </cell>
-          <cell r="N5">
-            <v>12.623912374343043</v>
-          </cell>
-          <cell r="O5">
-            <v>24.373187290571739</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="K6">
-            <v>2</v>
-          </cell>
-          <cell r="M6">
-            <v>7.6677323584975916</v>
-          </cell>
-          <cell r="N6">
-            <v>11.287084460925476</v>
-          </cell>
-          <cell r="O6">
-            <v>22.145140768209124</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="K7">
-            <v>3</v>
-          </cell>
-          <cell r="M7">
-            <v>7.8578892281400501</v>
-          </cell>
-          <cell r="N7">
-            <v>11.531571864751493</v>
-          </cell>
-          <cell r="O7">
-            <v>22.552619774585821</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="K8">
-            <v>4</v>
-          </cell>
-          <cell r="M8">
-            <v>10.619062018515605</v>
-          </cell>
-          <cell r="N8">
-            <v>15.081651166662921</v>
-          </cell>
-          <cell r="O8">
-            <v>28.469418611104867</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="K9">
-            <v>5</v>
-          </cell>
-          <cell r="M9">
-            <v>13.174927096173157</v>
-          </cell>
-          <cell r="N9">
-            <v>18.367763409365487</v>
-          </cell>
-          <cell r="O9">
-            <v>33.946272348942479</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="K10">
-            <v>6</v>
-          </cell>
-          <cell r="M10">
-            <v>12.200123270143585</v>
-          </cell>
-          <cell r="N10">
-            <v>17.114444204470324</v>
-          </cell>
-          <cell r="O10">
-            <v>31.857407007450536</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="K11">
-            <v>7</v>
-          </cell>
-          <cell r="M11">
-            <v>9</v>
-          </cell>
-          <cell r="N11">
-            <v>13.000000000000002</v>
-          </cell>
-          <cell r="O11">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="K12">
-            <v>8</v>
-          </cell>
-          <cell r="M12">
-            <v>7.4423849287206458</v>
-          </cell>
-          <cell r="N12">
-            <v>10.99735205121226</v>
-          </cell>
-          <cell r="O12">
-            <v>21.662253418687101</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="K13">
-            <v>9</v>
-          </cell>
-          <cell r="M13">
-            <v>8.2096348228928928</v>
-          </cell>
-          <cell r="N13">
-            <v>11.983816200862289</v>
-          </cell>
-          <cell r="O13">
-            <v>23.306360334770485</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="K14">
-            <v>10</v>
-          </cell>
-          <cell r="M14">
-            <v>8.9584949626089792</v>
-          </cell>
-          <cell r="N14">
-            <v>12.946636380497258</v>
-          </cell>
-          <cell r="O14">
-            <v>24.911060634162098</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="K15">
-            <v>11</v>
-          </cell>
-          <cell r="M15">
-            <v>9</v>
-          </cell>
-          <cell r="N15">
-            <v>13</v>
-          </cell>
-          <cell r="O15">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="K16">
-            <v>12</v>
-          </cell>
-          <cell r="M16">
-            <v>9</v>
-          </cell>
-          <cell r="N16">
-            <v>13</v>
-          </cell>
-          <cell r="O16">
-            <v>25</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -17257,7 +18505,7 @@
         <v>0</v>
       </c>
       <c r="AD61">
-        <f t="shared" ref="AD51:AD71" si="5">AE61-X61</f>
+        <f t="shared" ref="AD61:AD71" si="5">AE61-X61</f>
         <v>0</v>
       </c>
       <c r="AE61">
@@ -22092,18 +23340,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="W107:AD107"/>
+    <mergeCell ref="AG107:AN107"/>
+    <mergeCell ref="AQ107:AX107"/>
+    <mergeCell ref="W137:AD137"/>
+    <mergeCell ref="AG137:AN137"/>
+    <mergeCell ref="AQ137:AX137"/>
     <mergeCell ref="W45:AD45"/>
     <mergeCell ref="AG45:AN45"/>
     <mergeCell ref="AQ45:AX45"/>
     <mergeCell ref="W75:AD75"/>
     <mergeCell ref="AG75:AN75"/>
     <mergeCell ref="AQ75:AX75"/>
-    <mergeCell ref="W107:AD107"/>
-    <mergeCell ref="AG107:AN107"/>
-    <mergeCell ref="AQ107:AX107"/>
-    <mergeCell ref="W137:AD137"/>
-    <mergeCell ref="AG137:AN137"/>
-    <mergeCell ref="AQ137:AX137"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25856,6 +27104,3750 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B1418D-B79C-46D6-B7B2-041A7DCB9D67}">
+  <dimension ref="A1:AX101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="V38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO45" sqref="AO45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" customWidth="1"/>
+    <col min="14" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>$P$3*G2*$J$2</f>
+        <v>9.5604123711340208</v>
+      </c>
+      <c r="B2">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>7.4</v>
+      </c>
+      <c r="D2">
+        <v>11.4</v>
+      </c>
+      <c r="E2">
+        <v>0.16</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <f>(($E$2*(15+($F$2*$B$2)))/($F$2+1))</f>
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="H2">
+        <v>42</v>
+      </c>
+      <c r="I2">
+        <v>178</v>
+      </c>
+      <c r="J2">
+        <f>1/(1+(0.2*(I2/H2)))</f>
+        <v>0.54123711340206182</v>
+      </c>
+      <c r="K2">
+        <v>-2</v>
+      </c>
+      <c r="L2">
+        <v>10.5</v>
+      </c>
+      <c r="M2">
+        <v>7.4</v>
+      </c>
+      <c r="N2">
+        <v>11.4</v>
+      </c>
+      <c r="O2">
+        <v>18</v>
+      </c>
+      <c r="P2">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>$P$3*G3*$J$2</f>
+        <v>5.1543092783505156</v>
+      </c>
+      <c r="G3">
+        <f>(($E$2*(15+($F$2*$C$2)))/($F$2+1))</f>
+        <v>1.4880000000000002</v>
+      </c>
+      <c r="K3">
+        <v>-1</v>
+      </c>
+      <c r="L3">
+        <v>10.5</v>
+      </c>
+      <c r="M3">
+        <v>7.4</v>
+      </c>
+      <c r="N3">
+        <v>11.4</v>
+      </c>
+      <c r="O3">
+        <v>18</v>
+      </c>
+      <c r="P3">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>$P$3*G4*$J$2</f>
+        <v>6.8169896907216501</v>
+      </c>
+      <c r="G4">
+        <f>(($E$2*(15+($F$2*$D$2)))/($F$2+1))</f>
+        <v>1.9680000000000002</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>10.5</v>
+      </c>
+      <c r="M4">
+        <v>7.4</v>
+      </c>
+      <c r="N4">
+        <v>11.4</v>
+      </c>
+      <c r="O4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>10.5</v>
+      </c>
+      <c r="M5">
+        <f>$C$2-(0.37*$A$3*SIN(3*PI()*K5/L5)*(1-COS(2*PI()*K5/L5)))</f>
+        <v>7.1409174134363189</v>
+      </c>
+      <c r="N5">
+        <f>$D$2-(0.37*$A$4*SIN(3*PI()*K5/L5)*(1-COS(2*PI()*K5/L5)))</f>
+        <v>11.05734238551255</v>
+      </c>
+      <c r="O5">
+        <f>$B$2-(0.37*$A$2*SIN(3*PI()*K5/L5)*(1-COS(2*PI()*K5/L5)))</f>
+        <v>17.519443589438332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>10.5</v>
+      </c>
+      <c r="M6">
+        <f>$C$2-(0.37*$A$3*SIN(3*PI()*K6/L6)*(1-COS(2*PI()*K6/L6)))</f>
+        <v>6.2199915175264389</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N14" si="0">$D$2-(0.37*$A$4*SIN(3*PI()*K6/L6)*(1-COS(2*PI()*K6/L6)))</f>
+        <v>9.8393436199543221</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ref="O6:O14" si="1">$B$2-(0.37*$A$2*SIN(3*PI()*K6/L6)*(1-COS(2*PI()*K6/L6)))</f>
+        <v>15.81127458896033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>10.5</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M14" si="2">$C$2-(0.37*$A$3*SIN(3*PI()*K7/L7)*(1-COS(2*PI()*K7/L7)))</f>
+        <v>6.3884161734954734</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>10.062098810106916</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>16.123675160515795</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>10.5</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>8.8340263592566792</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>13.296615507403995</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>20.659887601847064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>10.5</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>11.097792570896226</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>16.290628884088555</v>
+      </c>
+      <c r="O9">
+        <f>$B$2-(0.37*$A$2*SIN(3*PI()*K9/L9)*(1-COS(2*PI()*K9/L9)))</f>
+        <v>24.858808800855904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>10.5</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>10.234394896412891</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>15.148715830739627</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>23.257345372378744</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>10.5</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>7.4000000000000012</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>11.400000000000002</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>8</v>
+      </c>
+      <c r="L12">
+        <v>10.5</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>6.0203980797240018</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>9.5753652022156146</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>15.441060954326776</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>9</v>
+      </c>
+      <c r="L13">
+        <v>10.5</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>6.6999622717051333</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>10.474143649674531</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>16.701542923324038</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>10</v>
+      </c>
+      <c r="L14">
+        <v>10.5</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>7.3632383954536671</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>11.351379813341946</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>17.931813152857607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>11</v>
+      </c>
+      <c r="L15">
+        <v>10.5</v>
+      </c>
+      <c r="M15">
+        <v>7.4</v>
+      </c>
+      <c r="N15">
+        <v>11.4</v>
+      </c>
+      <c r="O15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>12</v>
+      </c>
+      <c r="L16">
+        <v>10.5</v>
+      </c>
+      <c r="M16">
+        <v>7.4</v>
+      </c>
+      <c r="N16">
+        <v>11.4</v>
+      </c>
+      <c r="O16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" t="s">
+        <v>32</v>
+      </c>
+      <c r="L23" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>6.4*G24*J24</f>
+        <v>17.828571428571429</v>
+      </c>
+      <c r="D24">
+        <v>25</v>
+      </c>
+      <c r="E24">
+        <v>0.18</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <f>((E24*(15+(F24*D24)))/(F24+1))</f>
+        <v>3.9</v>
+      </c>
+      <c r="H24">
+        <f>0.7*30</f>
+        <v>21</v>
+      </c>
+      <c r="I24">
+        <v>42</v>
+      </c>
+      <c r="J24">
+        <f>1/(1+(0.2*(I24/H24)))</f>
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="K24">
+        <v>-2</v>
+      </c>
+      <c r="L24">
+        <v>10.5</v>
+      </c>
+      <c r="N24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>-1</v>
+      </c>
+      <c r="L25">
+        <v>10.5</v>
+      </c>
+      <c r="N25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>10.5</v>
+      </c>
+      <c r="N26">
+        <f>11-(0.37*$A$2*SIN(3*PI()*K26/L26)*(1-COS(2*PI()*K26/L26)))</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>10.5</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27:N36" si="3">$D$24-(0.37*$A$24*SIN(3*PI()*K27/L27)*(1-COS(2*PI()*K27/L27)))</f>
+        <v>24.103842600239187</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>10.5</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="3"/>
+        <v>20.918392867020074</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>10.5</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="3"/>
+        <v>21.500967727610792</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>10.5</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="3"/>
+        <v>29.960245882770113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>10.5</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="3"/>
+        <v>37.790532235846335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>6</v>
+      </c>
+      <c r="L32">
+        <v>10.5</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="3"/>
+        <v>34.804070562806267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>7</v>
+      </c>
+      <c r="L33">
+        <v>10.5</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="3"/>
+        <v>25.000000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>8</v>
+      </c>
+      <c r="L34">
+        <v>10.5</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="3"/>
+        <v>20.228006304948337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>9</v>
+      </c>
+      <c r="L35">
+        <v>10.5</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="3"/>
+        <v>22.578594537580024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36">
+        <v>10.5</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="3"/>
+        <v>24.872842924805447</v>
+      </c>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>11</v>
+      </c>
+      <c r="L37">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>12</v>
+      </c>
+      <c r="L38">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="W45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AG45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH45" s="3"/>
+      <c r="AI45" s="3"/>
+      <c r="AJ45" s="3"/>
+      <c r="AK45" s="3"/>
+      <c r="AL45" s="3"/>
+      <c r="AM45" s="3"/>
+      <c r="AN45" s="3"/>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="W46" t="s">
+        <v>2</v>
+      </c>
+      <c r="X46" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB46" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD46" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG46" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ46" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK46" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL46" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM46" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN46" t="s">
+        <v>8</v>
+      </c>
+      <c r="AQ46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR46" s="3"/>
+      <c r="AS46" s="3"/>
+      <c r="AT46" s="3"/>
+      <c r="AU46" s="3"/>
+      <c r="AV46" s="3"/>
+      <c r="AW46" s="3"/>
+      <c r="AX46" s="3"/>
+    </row>
+    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" t="s">
+        <v>30</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" t="s">
+        <v>32</v>
+      </c>
+      <c r="L47" t="s">
+        <v>33</v>
+      </c>
+      <c r="M47" t="s">
+        <v>31</v>
+      </c>
+      <c r="N47" t="s">
+        <v>31</v>
+      </c>
+      <c r="O47" t="s">
+        <v>31</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="W47" t="s">
+        <v>9</v>
+      </c>
+      <c r="X47" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB47" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD47" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ47" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL47" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM47" t="s">
+        <v>13</v>
+      </c>
+      <c r="AN47" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>5</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW47" t="s">
+        <v>7</v>
+      </c>
+      <c r="AX47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f>$P$3*G48*$J$2</f>
+        <v>9.5604123711340208</v>
+      </c>
+      <c r="B48">
+        <v>25</v>
+      </c>
+      <c r="C48">
+        <v>9</v>
+      </c>
+      <c r="D48">
+        <v>13</v>
+      </c>
+      <c r="E48">
+        <v>0.16</v>
+      </c>
+      <c r="F48">
+        <v>3</v>
+      </c>
+      <c r="G48">
+        <f>(($E$2*(15+($F$2*$B$2)))/($F$2+1))</f>
+        <v>2.7600000000000002</v>
+      </c>
+      <c r="H48">
+        <v>42</v>
+      </c>
+      <c r="I48">
+        <v>178</v>
+      </c>
+      <c r="J48">
+        <f>1/(1+(0.2*(I48/H48)))</f>
+        <v>0.54123711340206182</v>
+      </c>
+      <c r="K48">
+        <v>-2</v>
+      </c>
+      <c r="L48">
+        <v>10.5</v>
+      </c>
+      <c r="M48">
+        <v>9</v>
+      </c>
+      <c r="N48">
+        <v>13</v>
+      </c>
+      <c r="O48">
+        <v>25</v>
+      </c>
+      <c r="P48">
+        <v>4.8</v>
+      </c>
+      <c r="W48" t="s">
+        <v>14</v>
+      </c>
+      <c r="X48" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB48" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ48" t="s">
+        <v>15</v>
+      </c>
+      <c r="AK48" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM48" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN48" t="s">
+        <v>15</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>12</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW48" t="s">
+        <v>13</v>
+      </c>
+      <c r="AX48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f>$P$3*G49*$J$2</f>
+        <v>5.1543092783505156</v>
+      </c>
+      <c r="G49">
+        <f>(($E$2*(15+($F$2*$C$2)))/($F$2+1))</f>
+        <v>1.4880000000000002</v>
+      </c>
+      <c r="K49">
+        <v>-1</v>
+      </c>
+      <c r="L49">
+        <v>10.5</v>
+      </c>
+      <c r="M49">
+        <v>9</v>
+      </c>
+      <c r="N49">
+        <v>13</v>
+      </c>
+      <c r="O49">
+        <v>25</v>
+      </c>
+      <c r="P49">
+        <v>6.4</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>18</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+      <c r="AA49">
+        <v>0</v>
+      </c>
+      <c r="AB49">
+        <v>0.11</v>
+      </c>
+      <c r="AC49">
+        <v>0</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>18</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
+      </c>
+      <c r="AJ49">
+        <v>0</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>0.11</v>
+      </c>
+      <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>0</v>
+      </c>
+      <c r="AQ49" t="s">
+        <v>14</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>15</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>15</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>17</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>17</v>
+      </c>
+      <c r="AW49" t="s">
+        <v>17</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f>$P$3*G50*$J$2</f>
+        <v>6.8169896907216501</v>
+      </c>
+      <c r="G50">
+        <f>(($E$2*(15+($F$2*$D$2)))/($F$2+1))</f>
+        <v>1.9680000000000002</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>10.5</v>
+      </c>
+      <c r="M50">
+        <v>9</v>
+      </c>
+      <c r="N50">
+        <v>13</v>
+      </c>
+      <c r="O50">
+        <v>25</v>
+      </c>
+      <c r="W50">
+        <v>140</v>
+      </c>
+      <c r="X50">
+        <v>18</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>0</v>
+      </c>
+      <c r="AB50">
+        <v>0.11</v>
+      </c>
+      <c r="AC50">
+        <v>0</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AG50">
+        <v>145</v>
+      </c>
+      <c r="AH50">
+        <v>18</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>0.11</v>
+      </c>
+      <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>18</v>
+      </c>
+      <c r="AS50">
+        <v>0</v>
+      </c>
+      <c r="AT50">
+        <v>0</v>
+      </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>0.11</v>
+      </c>
+      <c r="AW50">
+        <v>0</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>10.5</v>
+      </c>
+      <c r="M51">
+        <f>$C$2-(0.37*$A$3*SIN(3*PI()*K51/L51)*(1-COS(2*PI()*K51/L51)))</f>
+        <v>7.1409174134363189</v>
+      </c>
+      <c r="N51">
+        <f>$D$2-(0.37*$A$4*SIN(3*PI()*K51/L51)*(1-COS(2*PI()*K51/L51)))</f>
+        <v>11.05734238551255</v>
+      </c>
+      <c r="O51">
+        <f>$B$2-(0.37*$A$2*SIN(3*PI()*K51/L51)*(1-COS(2*PI()*K51/L51)))</f>
+        <v>17.519443589438332</v>
+      </c>
+      <c r="W51">
+        <v>141</v>
+      </c>
+      <c r="X51">
+        <v>18</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>0</v>
+      </c>
+      <c r="AB51">
+        <v>0.11</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <f>AE51-X51</f>
+        <v>-0.4805564105616682</v>
+      </c>
+      <c r="AE51">
+        <v>17.519443589438332</v>
+      </c>
+      <c r="AG51">
+        <v>146</v>
+      </c>
+      <c r="AH51">
+        <v>18</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
+      </c>
+      <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>0.11</v>
+      </c>
+      <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>-0.4805564105616682</v>
+      </c>
+      <c r="AQ51">
+        <v>146</v>
+      </c>
+      <c r="AR51">
+        <v>18</v>
+      </c>
+      <c r="AS51">
+        <v>0</v>
+      </c>
+      <c r="AT51">
+        <v>0</v>
+      </c>
+      <c r="AU51">
+        <v>0</v>
+      </c>
+      <c r="AV51">
+        <v>0.11</v>
+      </c>
+      <c r="AW51">
+        <v>0</v>
+      </c>
+      <c r="AX51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>10.5</v>
+      </c>
+      <c r="M52">
+        <f>$C$2-(0.37*$A$3*SIN(3*PI()*K52/L52)*(1-COS(2*PI()*K52/L52)))</f>
+        <v>6.2199915175264389</v>
+      </c>
+      <c r="N52">
+        <f t="shared" ref="N52:N60" si="4">$D$2-(0.37*$A$4*SIN(3*PI()*K52/L52)*(1-COS(2*PI()*K52/L52)))</f>
+        <v>9.8393436199543221</v>
+      </c>
+      <c r="O52">
+        <f t="shared" ref="O52:O54" si="5">$B$2-(0.37*$A$2*SIN(3*PI()*K52/L52)*(1-COS(2*PI()*K52/L52)))</f>
+        <v>15.81127458896033</v>
+      </c>
+      <c r="W52">
+        <v>142</v>
+      </c>
+      <c r="X52">
+        <v>18</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>0</v>
+      </c>
+      <c r="AB52">
+        <v>0.11</v>
+      </c>
+      <c r="AC52">
+        <v>0</v>
+      </c>
+      <c r="AD52">
+        <f t="shared" ref="AD52:AD60" si="6">AE52-X52</f>
+        <v>-2.1887254110396697</v>
+      </c>
+      <c r="AE52">
+        <v>15.81127458896033</v>
+      </c>
+      <c r="AG52">
+        <v>147</v>
+      </c>
+      <c r="AH52">
+        <v>18</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>0.11</v>
+      </c>
+      <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>-2.1887254110396697</v>
+      </c>
+      <c r="AQ52">
+        <v>147</v>
+      </c>
+      <c r="AR52">
+        <v>18</v>
+      </c>
+      <c r="AS52">
+        <v>0</v>
+      </c>
+      <c r="AT52">
+        <v>0</v>
+      </c>
+      <c r="AU52">
+        <v>0</v>
+      </c>
+      <c r="AV52">
+        <v>0.11</v>
+      </c>
+      <c r="AW52">
+        <v>0</v>
+      </c>
+      <c r="AX52">
+        <v>-0.4805564105616682</v>
+      </c>
+    </row>
+    <row r="53" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53">
+        <v>10.5</v>
+      </c>
+      <c r="M53">
+        <f t="shared" ref="M53:M60" si="7">$C$2-(0.37*$A$3*SIN(3*PI()*K53/L53)*(1-COS(2*PI()*K53/L53)))</f>
+        <v>6.3884161734954734</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="4"/>
+        <v>10.062098810106916</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="5"/>
+        <v>16.123675160515795</v>
+      </c>
+      <c r="W53">
+        <v>143</v>
+      </c>
+      <c r="X53">
+        <v>18</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>0</v>
+      </c>
+      <c r="AB53">
+        <v>0.11</v>
+      </c>
+      <c r="AC53">
+        <v>0</v>
+      </c>
+      <c r="AD53">
+        <f t="shared" si="6"/>
+        <v>-1.8763248394842051</v>
+      </c>
+      <c r="AE53">
+        <v>16.123675160515795</v>
+      </c>
+      <c r="AG53">
+        <v>148</v>
+      </c>
+      <c r="AH53">
+        <v>18</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>0.11</v>
+      </c>
+      <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>-1.8763248394842051</v>
+      </c>
+      <c r="AQ53">
+        <v>148</v>
+      </c>
+      <c r="AR53">
+        <v>18</v>
+      </c>
+      <c r="AS53">
+        <v>0</v>
+      </c>
+      <c r="AT53">
+        <v>0</v>
+      </c>
+      <c r="AU53">
+        <v>0</v>
+      </c>
+      <c r="AV53">
+        <v>0.11</v>
+      </c>
+      <c r="AW53">
+        <v>0</v>
+      </c>
+      <c r="AX53">
+        <v>-2.1887254110396697</v>
+      </c>
+    </row>
+    <row r="54" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>4</v>
+      </c>
+      <c r="L54">
+        <v>10.5</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="7"/>
+        <v>8.8340263592566792</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="4"/>
+        <v>13.296615507403995</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="5"/>
+        <v>20.659887601847064</v>
+      </c>
+      <c r="T54">
+        <v>17.519443589438332</v>
+      </c>
+      <c r="W54">
+        <v>144</v>
+      </c>
+      <c r="X54">
+        <v>18</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>0</v>
+      </c>
+      <c r="AB54">
+        <v>0.11</v>
+      </c>
+      <c r="AC54">
+        <v>0</v>
+      </c>
+      <c r="AD54">
+        <f t="shared" si="6"/>
+        <v>2.6598876018470641</v>
+      </c>
+      <c r="AE54">
+        <v>20.659887601847064</v>
+      </c>
+      <c r="AG54">
+        <v>149</v>
+      </c>
+      <c r="AH54">
+        <v>18</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
+        <v>0</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>0.11</v>
+      </c>
+      <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>2.6598876018470641</v>
+      </c>
+      <c r="AQ54">
+        <v>149</v>
+      </c>
+      <c r="AR54">
+        <v>18</v>
+      </c>
+      <c r="AS54">
+        <v>0</v>
+      </c>
+      <c r="AT54">
+        <v>0</v>
+      </c>
+      <c r="AU54">
+        <v>0</v>
+      </c>
+      <c r="AV54">
+        <v>0.11</v>
+      </c>
+      <c r="AW54">
+        <v>0</v>
+      </c>
+      <c r="AX54">
+        <v>-1.8763248394842051</v>
+      </c>
+    </row>
+    <row r="55" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>5</v>
+      </c>
+      <c r="L55">
+        <v>10.5</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="7"/>
+        <v>11.097792570896226</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="4"/>
+        <v>16.290628884088555</v>
+      </c>
+      <c r="O55">
+        <f>$B$2-(0.37*$A$2*SIN(3*PI()*K55/L55)*(1-COS(2*PI()*K55/L55)))</f>
+        <v>24.858808800855904</v>
+      </c>
+      <c r="T55">
+        <v>15.81127458896033</v>
+      </c>
+      <c r="W55">
+        <v>145</v>
+      </c>
+      <c r="X55">
+        <v>18</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+      <c r="AA55">
+        <v>0</v>
+      </c>
+      <c r="AB55">
+        <v>0.11</v>
+      </c>
+      <c r="AC55">
+        <v>0</v>
+      </c>
+      <c r="AD55">
+        <f t="shared" si="6"/>
+        <v>6.8588088008559041</v>
+      </c>
+      <c r="AE55">
+        <v>24.858808800855904</v>
+      </c>
+      <c r="AG55">
+        <v>150</v>
+      </c>
+      <c r="AH55">
+        <v>18</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
+        <v>0</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>0.11</v>
+      </c>
+      <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>6.8588088008559041</v>
+      </c>
+      <c r="AQ55">
+        <v>150</v>
+      </c>
+      <c r="AR55">
+        <v>18</v>
+      </c>
+      <c r="AS55">
+        <v>0</v>
+      </c>
+      <c r="AT55">
+        <v>0</v>
+      </c>
+      <c r="AU55">
+        <v>0</v>
+      </c>
+      <c r="AV55">
+        <v>0.11</v>
+      </c>
+      <c r="AW55">
+        <v>0</v>
+      </c>
+      <c r="AX55">
+        <v>2.6598876018470641</v>
+      </c>
+    </row>
+    <row r="56" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <v>6</v>
+      </c>
+      <c r="L56">
+        <v>10.5</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="7"/>
+        <v>10.234394896412891</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="4"/>
+        <v>15.148715830739627</v>
+      </c>
+      <c r="O56">
+        <f t="shared" ref="O56:O60" si="8">$B$2-(0.37*$A$2*SIN(3*PI()*K56/L56)*(1-COS(2*PI()*K56/L56)))</f>
+        <v>23.257345372378744</v>
+      </c>
+      <c r="T56">
+        <v>16.123675160515795</v>
+      </c>
+      <c r="W56">
+        <v>146</v>
+      </c>
+      <c r="X56">
+        <v>18</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+      <c r="AA56">
+        <v>0</v>
+      </c>
+      <c r="AB56">
+        <v>0.11</v>
+      </c>
+      <c r="AC56">
+        <v>0</v>
+      </c>
+      <c r="AD56">
+        <f t="shared" si="6"/>
+        <v>5.2573453723787438</v>
+      </c>
+      <c r="AE56">
+        <v>23.257345372378744</v>
+      </c>
+      <c r="AG56">
+        <v>151</v>
+      </c>
+      <c r="AH56">
+        <v>18</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
+        <v>0</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>0.11</v>
+      </c>
+      <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>5.2573453723787438</v>
+      </c>
+      <c r="AQ56">
+        <v>151</v>
+      </c>
+      <c r="AR56">
+        <v>18</v>
+      </c>
+      <c r="AS56">
+        <v>0</v>
+      </c>
+      <c r="AT56">
+        <v>0</v>
+      </c>
+      <c r="AU56">
+        <v>0</v>
+      </c>
+      <c r="AV56">
+        <v>0.11</v>
+      </c>
+      <c r="AW56">
+        <v>0</v>
+      </c>
+      <c r="AX56">
+        <v>6.8588088008559041</v>
+      </c>
+    </row>
+    <row r="57" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <v>7</v>
+      </c>
+      <c r="L57">
+        <v>10.5</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="7"/>
+        <v>7.4000000000000012</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="4"/>
+        <v>11.400000000000002</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="T57">
+        <v>20.659887601847064</v>
+      </c>
+      <c r="W57">
+        <v>147</v>
+      </c>
+      <c r="X57">
+        <v>18</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+      <c r="AA57">
+        <v>0</v>
+      </c>
+      <c r="AB57">
+        <v>0.11</v>
+      </c>
+      <c r="AC57">
+        <v>0</v>
+      </c>
+      <c r="AD57">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>18</v>
+      </c>
+      <c r="AG57">
+        <v>152</v>
+      </c>
+      <c r="AH57">
+        <v>18</v>
+      </c>
+      <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
+        <v>0</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>0.11</v>
+      </c>
+      <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AQ57">
+        <v>152</v>
+      </c>
+      <c r="AR57">
+        <v>18</v>
+      </c>
+      <c r="AS57">
+        <v>0</v>
+      </c>
+      <c r="AT57">
+        <v>0</v>
+      </c>
+      <c r="AU57">
+        <v>0</v>
+      </c>
+      <c r="AV57">
+        <v>0.11</v>
+      </c>
+      <c r="AW57">
+        <v>0</v>
+      </c>
+      <c r="AX57">
+        <v>5.2573453723787438</v>
+      </c>
+    </row>
+    <row r="58" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <v>8</v>
+      </c>
+      <c r="L58">
+        <v>10.5</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="7"/>
+        <v>6.0203980797240018</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="4"/>
+        <v>9.5753652022156146</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="8"/>
+        <v>15.441060954326776</v>
+      </c>
+      <c r="T58">
+        <v>24.858808800855904</v>
+      </c>
+      <c r="W58">
+        <v>148</v>
+      </c>
+      <c r="X58">
+        <v>18</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+      <c r="AA58">
+        <v>0</v>
+      </c>
+      <c r="AB58">
+        <v>0.11</v>
+      </c>
+      <c r="AC58">
+        <v>0</v>
+      </c>
+      <c r="AD58">
+        <f t="shared" si="6"/>
+        <v>-2.5589390456732239</v>
+      </c>
+      <c r="AE58">
+        <v>15.441060954326776</v>
+      </c>
+      <c r="AG58">
+        <v>153</v>
+      </c>
+      <c r="AH58">
+        <v>18</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
+        <v>0</v>
+      </c>
+      <c r="AK58">
+        <v>0</v>
+      </c>
+      <c r="AL58">
+        <v>0.11</v>
+      </c>
+      <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>-2.5589390456732239</v>
+      </c>
+      <c r="AQ58">
+        <v>153</v>
+      </c>
+      <c r="AR58">
+        <v>18</v>
+      </c>
+      <c r="AS58">
+        <v>0</v>
+      </c>
+      <c r="AT58">
+        <v>0</v>
+      </c>
+      <c r="AU58">
+        <v>0</v>
+      </c>
+      <c r="AV58">
+        <v>0.11</v>
+      </c>
+      <c r="AW58">
+        <v>0</v>
+      </c>
+      <c r="AX58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <v>9</v>
+      </c>
+      <c r="L59">
+        <v>10.5</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="7"/>
+        <v>6.6999622717051333</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="4"/>
+        <v>10.474143649674531</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="8"/>
+        <v>16.701542923324038</v>
+      </c>
+      <c r="T59">
+        <v>23.257345372378744</v>
+      </c>
+      <c r="W59">
+        <v>149</v>
+      </c>
+      <c r="X59">
+        <v>18</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0.11</v>
+      </c>
+      <c r="AC59">
+        <v>0</v>
+      </c>
+      <c r="AD59">
+        <f t="shared" si="6"/>
+        <v>-1.2984570766759624</v>
+      </c>
+      <c r="AE59">
+        <v>16.701542923324038</v>
+      </c>
+      <c r="AG59">
+        <v>154</v>
+      </c>
+      <c r="AH59">
+        <v>18</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
+        <v>0</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>0.11</v>
+      </c>
+      <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>-1.2984570766759624</v>
+      </c>
+      <c r="AQ59">
+        <v>154</v>
+      </c>
+      <c r="AR59">
+        <v>18</v>
+      </c>
+      <c r="AS59">
+        <v>0</v>
+      </c>
+      <c r="AT59">
+        <v>0</v>
+      </c>
+      <c r="AU59">
+        <v>0</v>
+      </c>
+      <c r="AV59">
+        <v>0.11</v>
+      </c>
+      <c r="AW59">
+        <v>0</v>
+      </c>
+      <c r="AX59">
+        <v>-2.5589390456732239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <v>10</v>
+      </c>
+      <c r="L60">
+        <v>10.5</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="7"/>
+        <v>7.3632383954536671</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="4"/>
+        <v>11.351379813341946</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="8"/>
+        <v>17.931813152857607</v>
+      </c>
+      <c r="T60">
+        <v>18</v>
+      </c>
+      <c r="W60">
+        <v>150</v>
+      </c>
+      <c r="X60">
+        <v>18</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+      <c r="AA60">
+        <v>0</v>
+      </c>
+      <c r="AB60">
+        <v>0.11</v>
+      </c>
+      <c r="AC60">
+        <v>0</v>
+      </c>
+      <c r="AD60">
+        <f t="shared" si="6"/>
+        <v>-6.8186847142392537E-2</v>
+      </c>
+      <c r="AE60">
+        <v>17.931813152857607</v>
+      </c>
+      <c r="AG60">
+        <v>155</v>
+      </c>
+      <c r="AH60">
+        <v>18</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
+      </c>
+      <c r="AJ60">
+        <v>0</v>
+      </c>
+      <c r="AK60">
+        <v>0</v>
+      </c>
+      <c r="AL60">
+        <v>0.11</v>
+      </c>
+      <c r="AM60">
+        <v>0</v>
+      </c>
+      <c r="AN60">
+        <v>-6.8186847142392537E-2</v>
+      </c>
+      <c r="AQ60">
+        <v>155</v>
+      </c>
+      <c r="AR60">
+        <v>18</v>
+      </c>
+      <c r="AS60">
+        <v>0</v>
+      </c>
+      <c r="AT60">
+        <v>0</v>
+      </c>
+      <c r="AU60">
+        <v>0</v>
+      </c>
+      <c r="AV60">
+        <v>0.11</v>
+      </c>
+      <c r="AW60">
+        <v>0</v>
+      </c>
+      <c r="AX60">
+        <v>-1.2984570766759624</v>
+      </c>
+    </row>
+    <row r="61" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <v>11</v>
+      </c>
+      <c r="L61">
+        <v>10.5</v>
+      </c>
+      <c r="M61">
+        <v>9</v>
+      </c>
+      <c r="N61">
+        <v>13</v>
+      </c>
+      <c r="O61">
+        <v>25</v>
+      </c>
+      <c r="T61">
+        <v>15.441060954326776</v>
+      </c>
+      <c r="W61">
+        <v>151</v>
+      </c>
+      <c r="X61">
+        <v>18</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+      <c r="AA61">
+        <v>0</v>
+      </c>
+      <c r="AB61">
+        <v>0.11</v>
+      </c>
+      <c r="AC61">
+        <v>0</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>156</v>
+      </c>
+      <c r="AH61">
+        <v>18</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
+      </c>
+      <c r="AJ61">
+        <v>0</v>
+      </c>
+      <c r="AK61">
+        <v>0</v>
+      </c>
+      <c r="AL61">
+        <v>0.11</v>
+      </c>
+      <c r="AM61">
+        <v>0</v>
+      </c>
+      <c r="AN61">
+        <v>0</v>
+      </c>
+      <c r="AQ61">
+        <v>156</v>
+      </c>
+      <c r="AR61">
+        <v>18</v>
+      </c>
+      <c r="AS61">
+        <v>0</v>
+      </c>
+      <c r="AT61">
+        <v>0</v>
+      </c>
+      <c r="AU61">
+        <v>0</v>
+      </c>
+      <c r="AV61">
+        <v>0.11</v>
+      </c>
+      <c r="AW61">
+        <v>0</v>
+      </c>
+      <c r="AX61">
+        <v>-6.8186847142392537E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <v>12</v>
+      </c>
+      <c r="L62">
+        <v>10.5</v>
+      </c>
+      <c r="M62">
+        <v>9</v>
+      </c>
+      <c r="N62">
+        <v>13</v>
+      </c>
+      <c r="O62">
+        <v>25</v>
+      </c>
+      <c r="T62">
+        <v>16.701542923324038</v>
+      </c>
+      <c r="W62">
+        <v>152</v>
+      </c>
+      <c r="X62">
+        <v>18</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>0</v>
+      </c>
+      <c r="AB62">
+        <v>0.11</v>
+      </c>
+      <c r="AC62">
+        <v>0</v>
+      </c>
+      <c r="AD62">
+        <v>0</v>
+      </c>
+      <c r="AG62">
+        <v>157</v>
+      </c>
+      <c r="AH62">
+        <v>18</v>
+      </c>
+      <c r="AI62">
+        <v>0</v>
+      </c>
+      <c r="AJ62">
+        <v>0</v>
+      </c>
+      <c r="AK62">
+        <v>0</v>
+      </c>
+      <c r="AL62">
+        <v>0.11</v>
+      </c>
+      <c r="AM62">
+        <v>0</v>
+      </c>
+      <c r="AN62">
+        <v>0</v>
+      </c>
+      <c r="AQ62">
+        <v>157</v>
+      </c>
+      <c r="AR62">
+        <v>18</v>
+      </c>
+      <c r="AS62">
+        <v>0</v>
+      </c>
+      <c r="AT62">
+        <v>0</v>
+      </c>
+      <c r="AU62">
+        <v>0</v>
+      </c>
+      <c r="AV62">
+        <v>0.11</v>
+      </c>
+      <c r="AW62">
+        <v>0</v>
+      </c>
+      <c r="AX62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="T63">
+        <v>17.931813152857607</v>
+      </c>
+      <c r="W63">
+        <v>153</v>
+      </c>
+      <c r="X63">
+        <v>18</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+      <c r="AA63">
+        <v>0</v>
+      </c>
+      <c r="AB63">
+        <v>0.11</v>
+      </c>
+      <c r="AC63">
+        <v>0</v>
+      </c>
+      <c r="AD63">
+        <v>0</v>
+      </c>
+      <c r="AG63">
+        <v>158</v>
+      </c>
+      <c r="AH63">
+        <v>18</v>
+      </c>
+      <c r="AI63">
+        <v>0</v>
+      </c>
+      <c r="AJ63">
+        <v>0</v>
+      </c>
+      <c r="AK63">
+        <v>0</v>
+      </c>
+      <c r="AL63">
+        <v>0.11</v>
+      </c>
+      <c r="AM63">
+        <v>0</v>
+      </c>
+      <c r="AN63">
+        <v>0</v>
+      </c>
+      <c r="AQ63">
+        <v>158</v>
+      </c>
+      <c r="AR63">
+        <v>18</v>
+      </c>
+      <c r="AS63">
+        <v>0</v>
+      </c>
+      <c r="AT63">
+        <v>0</v>
+      </c>
+      <c r="AU63">
+        <v>0</v>
+      </c>
+      <c r="AV63">
+        <v>0.11</v>
+      </c>
+      <c r="AW63">
+        <v>0</v>
+      </c>
+      <c r="AX63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="W64">
+        <v>154</v>
+      </c>
+      <c r="X64">
+        <v>18</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+      <c r="AA64">
+        <v>0</v>
+      </c>
+      <c r="AB64">
+        <v>0.11</v>
+      </c>
+      <c r="AC64">
+        <v>0</v>
+      </c>
+      <c r="AD64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>159</v>
+      </c>
+      <c r="AH64">
+        <v>18</v>
+      </c>
+      <c r="AI64">
+        <v>0</v>
+      </c>
+      <c r="AJ64">
+        <v>0</v>
+      </c>
+      <c r="AK64">
+        <v>0</v>
+      </c>
+      <c r="AL64">
+        <v>0.11</v>
+      </c>
+      <c r="AM64">
+        <v>0</v>
+      </c>
+      <c r="AN64">
+        <v>0</v>
+      </c>
+      <c r="AQ64">
+        <v>159</v>
+      </c>
+      <c r="AR64">
+        <v>18</v>
+      </c>
+      <c r="AS64">
+        <v>0</v>
+      </c>
+      <c r="AT64">
+        <v>0</v>
+      </c>
+      <c r="AU64">
+        <v>0</v>
+      </c>
+      <c r="AV64">
+        <v>0.11</v>
+      </c>
+      <c r="AW64">
+        <v>0</v>
+      </c>
+      <c r="AX64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="23:50" x14ac:dyDescent="0.25">
+      <c r="W65">
+        <v>155</v>
+      </c>
+      <c r="X65">
+        <v>18</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+      <c r="AA65">
+        <v>0</v>
+      </c>
+      <c r="AB65">
+        <v>0.11</v>
+      </c>
+      <c r="AC65">
+        <v>0</v>
+      </c>
+      <c r="AD65">
+        <v>0</v>
+      </c>
+      <c r="AG65">
+        <v>160</v>
+      </c>
+      <c r="AH65">
+        <v>18</v>
+      </c>
+      <c r="AI65">
+        <v>0</v>
+      </c>
+      <c r="AJ65">
+        <v>0</v>
+      </c>
+      <c r="AK65">
+        <v>0</v>
+      </c>
+      <c r="AL65">
+        <v>0.11</v>
+      </c>
+      <c r="AM65">
+        <v>0</v>
+      </c>
+      <c r="AN65">
+        <v>0</v>
+      </c>
+      <c r="AQ65">
+        <v>160</v>
+      </c>
+      <c r="AR65">
+        <v>18</v>
+      </c>
+      <c r="AS65">
+        <v>0</v>
+      </c>
+      <c r="AT65">
+        <v>0</v>
+      </c>
+      <c r="AU65">
+        <v>0</v>
+      </c>
+      <c r="AV65">
+        <v>0.11</v>
+      </c>
+      <c r="AW65">
+        <v>0</v>
+      </c>
+      <c r="AX65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="23:50" x14ac:dyDescent="0.25">
+      <c r="W66">
+        <v>156</v>
+      </c>
+      <c r="X66">
+        <v>18</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+      <c r="AA66">
+        <v>0</v>
+      </c>
+      <c r="AB66">
+        <v>0.11</v>
+      </c>
+      <c r="AC66">
+        <v>0</v>
+      </c>
+      <c r="AD66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>161</v>
+      </c>
+      <c r="AH66">
+        <v>18</v>
+      </c>
+      <c r="AI66">
+        <v>0</v>
+      </c>
+      <c r="AJ66">
+        <v>0</v>
+      </c>
+      <c r="AK66">
+        <v>0</v>
+      </c>
+      <c r="AL66">
+        <v>0.11</v>
+      </c>
+      <c r="AM66">
+        <v>0</v>
+      </c>
+      <c r="AN66">
+        <v>0</v>
+      </c>
+      <c r="AQ66">
+        <v>161</v>
+      </c>
+      <c r="AR66">
+        <v>18</v>
+      </c>
+      <c r="AS66">
+        <v>0</v>
+      </c>
+      <c r="AT66">
+        <v>0</v>
+      </c>
+      <c r="AU66">
+        <v>0</v>
+      </c>
+      <c r="AV66">
+        <v>0.11</v>
+      </c>
+      <c r="AW66">
+        <v>0</v>
+      </c>
+      <c r="AX66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="23:50" x14ac:dyDescent="0.25">
+      <c r="W67">
+        <v>157</v>
+      </c>
+      <c r="X67">
+        <v>18</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+      <c r="AA67">
+        <v>0</v>
+      </c>
+      <c r="AB67">
+        <v>0.11</v>
+      </c>
+      <c r="AC67">
+        <v>0</v>
+      </c>
+      <c r="AD67">
+        <v>0</v>
+      </c>
+      <c r="AG67">
+        <v>162</v>
+      </c>
+      <c r="AH67">
+        <v>18</v>
+      </c>
+      <c r="AI67">
+        <v>0</v>
+      </c>
+      <c r="AJ67">
+        <v>0</v>
+      </c>
+      <c r="AK67">
+        <v>0</v>
+      </c>
+      <c r="AL67">
+        <v>0.11</v>
+      </c>
+      <c r="AM67">
+        <v>0</v>
+      </c>
+      <c r="AN67">
+        <v>0</v>
+      </c>
+      <c r="AQ67">
+        <v>162</v>
+      </c>
+      <c r="AR67">
+        <v>18</v>
+      </c>
+      <c r="AS67">
+        <v>0</v>
+      </c>
+      <c r="AT67">
+        <v>0</v>
+      </c>
+      <c r="AU67">
+        <v>0</v>
+      </c>
+      <c r="AV67">
+        <v>0.11</v>
+      </c>
+      <c r="AW67">
+        <v>0</v>
+      </c>
+      <c r="AX67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="23:50" x14ac:dyDescent="0.25">
+      <c r="W68">
+        <v>158</v>
+      </c>
+      <c r="X68">
+        <v>18</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0.11</v>
+      </c>
+      <c r="AC68">
+        <v>0</v>
+      </c>
+      <c r="AD68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>163</v>
+      </c>
+      <c r="AH68">
+        <v>18</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
+        <v>0</v>
+      </c>
+      <c r="AK68">
+        <v>0</v>
+      </c>
+      <c r="AL68">
+        <v>0.11</v>
+      </c>
+      <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>0</v>
+      </c>
+      <c r="AQ68">
+        <v>163</v>
+      </c>
+      <c r="AR68">
+        <v>18</v>
+      </c>
+      <c r="AS68">
+        <v>0</v>
+      </c>
+      <c r="AT68">
+        <v>0</v>
+      </c>
+      <c r="AU68">
+        <v>0</v>
+      </c>
+      <c r="AV68">
+        <v>0.11</v>
+      </c>
+      <c r="AW68">
+        <v>0</v>
+      </c>
+      <c r="AX68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="23:50" x14ac:dyDescent="0.25">
+      <c r="W69">
+        <v>159</v>
+      </c>
+      <c r="X69">
+        <v>18</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+      <c r="AA69">
+        <v>0</v>
+      </c>
+      <c r="AB69">
+        <v>0.11</v>
+      </c>
+      <c r="AC69">
+        <v>0</v>
+      </c>
+      <c r="AD69">
+        <v>0</v>
+      </c>
+      <c r="AG69">
+        <v>164</v>
+      </c>
+      <c r="AH69">
+        <v>18</v>
+      </c>
+      <c r="AI69">
+        <v>0</v>
+      </c>
+      <c r="AJ69">
+        <v>0</v>
+      </c>
+      <c r="AK69">
+        <v>0</v>
+      </c>
+      <c r="AL69">
+        <v>0.11</v>
+      </c>
+      <c r="AM69">
+        <v>0</v>
+      </c>
+      <c r="AN69">
+        <v>0</v>
+      </c>
+      <c r="AQ69">
+        <v>164</v>
+      </c>
+      <c r="AR69">
+        <v>18</v>
+      </c>
+      <c r="AS69">
+        <v>0</v>
+      </c>
+      <c r="AT69">
+        <v>0</v>
+      </c>
+      <c r="AU69">
+        <v>0</v>
+      </c>
+      <c r="AV69">
+        <v>0.11</v>
+      </c>
+      <c r="AW69">
+        <v>0</v>
+      </c>
+      <c r="AX69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="23:50" x14ac:dyDescent="0.25">
+      <c r="W70">
+        <v>160</v>
+      </c>
+      <c r="X70">
+        <v>18</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+      <c r="AA70">
+        <v>0</v>
+      </c>
+      <c r="AB70">
+        <v>0.11</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
+      <c r="AD70">
+        <v>0</v>
+      </c>
+      <c r="AG70">
+        <v>165</v>
+      </c>
+      <c r="AH70">
+        <v>18</v>
+      </c>
+      <c r="AI70">
+        <v>0</v>
+      </c>
+      <c r="AJ70">
+        <v>0</v>
+      </c>
+      <c r="AK70">
+        <v>0</v>
+      </c>
+      <c r="AL70">
+        <v>0.11</v>
+      </c>
+      <c r="AM70">
+        <v>0</v>
+      </c>
+      <c r="AN70">
+        <v>0</v>
+      </c>
+      <c r="AQ70">
+        <v>165</v>
+      </c>
+      <c r="AR70">
+        <v>18</v>
+      </c>
+      <c r="AS70">
+        <v>0</v>
+      </c>
+      <c r="AT70">
+        <v>0</v>
+      </c>
+      <c r="AU70">
+        <v>0</v>
+      </c>
+      <c r="AV70">
+        <v>0.11</v>
+      </c>
+      <c r="AW70">
+        <v>0</v>
+      </c>
+      <c r="AX70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="23:50" x14ac:dyDescent="0.25">
+      <c r="W71">
+        <v>161</v>
+      </c>
+      <c r="X71">
+        <v>18</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+      <c r="AA71">
+        <v>0</v>
+      </c>
+      <c r="AB71">
+        <v>0.11</v>
+      </c>
+      <c r="AC71">
+        <v>0</v>
+      </c>
+      <c r="AD71">
+        <v>0</v>
+      </c>
+      <c r="AG71">
+        <v>166</v>
+      </c>
+      <c r="AH71">
+        <v>18</v>
+      </c>
+      <c r="AI71">
+        <v>0</v>
+      </c>
+      <c r="AJ71">
+        <v>0</v>
+      </c>
+      <c r="AK71">
+        <v>0</v>
+      </c>
+      <c r="AL71">
+        <v>0.11</v>
+      </c>
+      <c r="AM71">
+        <v>0</v>
+      </c>
+      <c r="AN71">
+        <v>0</v>
+      </c>
+      <c r="AQ71">
+        <v>166</v>
+      </c>
+      <c r="AR71">
+        <v>18</v>
+      </c>
+      <c r="AS71">
+        <v>0</v>
+      </c>
+      <c r="AT71">
+        <v>0</v>
+      </c>
+      <c r="AU71">
+        <v>0</v>
+      </c>
+      <c r="AV71">
+        <v>0.11</v>
+      </c>
+      <c r="AW71">
+        <v>0</v>
+      </c>
+      <c r="AX71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="23:50" x14ac:dyDescent="0.25">
+      <c r="AQ72">
+        <v>167</v>
+      </c>
+      <c r="AR72">
+        <v>18</v>
+      </c>
+      <c r="AS72">
+        <v>0</v>
+      </c>
+      <c r="AT72">
+        <v>0</v>
+      </c>
+      <c r="AU72">
+        <v>0</v>
+      </c>
+      <c r="AV72">
+        <v>0.11</v>
+      </c>
+      <c r="AW72">
+        <v>0</v>
+      </c>
+      <c r="AX72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="23:50" x14ac:dyDescent="0.25">
+      <c r="W75" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3"/>
+      <c r="Z75" s="3"/>
+      <c r="AA75" s="3"/>
+      <c r="AB75" s="3"/>
+      <c r="AC75" s="3"/>
+      <c r="AD75" s="3"/>
+      <c r="AG75" s="3"/>
+      <c r="AH75" s="3"/>
+      <c r="AI75" s="3"/>
+      <c r="AJ75" s="3"/>
+      <c r="AK75" s="3"/>
+      <c r="AL75" s="3"/>
+      <c r="AM75" s="3"/>
+      <c r="AN75" s="3"/>
+    </row>
+    <row r="76" spans="23:50" x14ac:dyDescent="0.25">
+      <c r="W76" t="s">
+        <v>2</v>
+      </c>
+      <c r="X76" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="23:50" x14ac:dyDescent="0.25">
+      <c r="W77" t="s">
+        <v>9</v>
+      </c>
+      <c r="X77" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="23:50" x14ac:dyDescent="0.25">
+      <c r="W78" t="s">
+        <v>14</v>
+      </c>
+      <c r="X78" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="23:50" x14ac:dyDescent="0.25">
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>18</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <v>0.11</v>
+      </c>
+      <c r="AC79">
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="23:50" x14ac:dyDescent="0.25">
+      <c r="W80">
+        <v>148</v>
+      </c>
+      <c r="X80">
+        <v>18</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <v>0.11</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W81">
+        <v>149</v>
+      </c>
+      <c r="X81">
+        <v>18</v>
+      </c>
+      <c r="Y81">
+        <v>0</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+      <c r="AA81">
+        <v>0</v>
+      </c>
+      <c r="AB81">
+        <v>0.11</v>
+      </c>
+      <c r="AC81">
+        <v>0</v>
+      </c>
+      <c r="AD81">
+        <v>-0.4805564105616682</v>
+      </c>
+    </row>
+    <row r="82" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W82">
+        <v>150</v>
+      </c>
+      <c r="X82">
+        <v>18</v>
+      </c>
+      <c r="Y82">
+        <v>0</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+      <c r="AA82">
+        <v>0</v>
+      </c>
+      <c r="AB82">
+        <v>0.11</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
+      <c r="AD82">
+        <v>-2.1887254110396697</v>
+      </c>
+    </row>
+    <row r="83" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W83">
+        <v>151</v>
+      </c>
+      <c r="X83">
+        <v>18</v>
+      </c>
+      <c r="Y83">
+        <v>0</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+      <c r="AA83">
+        <v>0</v>
+      </c>
+      <c r="AB83">
+        <v>0.11</v>
+      </c>
+      <c r="AC83">
+        <v>0</v>
+      </c>
+      <c r="AD83">
+        <v>-1.8763248394842051</v>
+      </c>
+    </row>
+    <row r="84" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W84">
+        <v>152</v>
+      </c>
+      <c r="X84">
+        <v>18</v>
+      </c>
+      <c r="Y84">
+        <v>0</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+      <c r="AA84">
+        <v>0</v>
+      </c>
+      <c r="AB84">
+        <v>0.11</v>
+      </c>
+      <c r="AC84">
+        <v>0</v>
+      </c>
+      <c r="AD84">
+        <v>2.6598876018470641</v>
+      </c>
+    </row>
+    <row r="85" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W85">
+        <v>153</v>
+      </c>
+      <c r="X85">
+        <v>18</v>
+      </c>
+      <c r="Y85">
+        <v>0</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+      <c r="AA85">
+        <v>0</v>
+      </c>
+      <c r="AB85">
+        <v>0.11</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
+      <c r="AD85">
+        <v>6.8588088008559041</v>
+      </c>
+    </row>
+    <row r="86" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W86">
+        <v>154</v>
+      </c>
+      <c r="X86">
+        <v>18</v>
+      </c>
+      <c r="Y86">
+        <v>0</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+      <c r="AA86">
+        <v>0</v>
+      </c>
+      <c r="AB86">
+        <v>0.11</v>
+      </c>
+      <c r="AC86">
+        <v>0</v>
+      </c>
+      <c r="AD86">
+        <v>5.2573453723787438</v>
+      </c>
+    </row>
+    <row r="87" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W87">
+        <v>155</v>
+      </c>
+      <c r="X87">
+        <v>18</v>
+      </c>
+      <c r="Y87">
+        <v>0</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+      <c r="AA87">
+        <v>0</v>
+      </c>
+      <c r="AB87">
+        <v>0.11</v>
+      </c>
+      <c r="AC87">
+        <v>0</v>
+      </c>
+      <c r="AD87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W88">
+        <v>156</v>
+      </c>
+      <c r="X88">
+        <v>18</v>
+      </c>
+      <c r="Y88">
+        <v>0</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+      <c r="AA88">
+        <v>0</v>
+      </c>
+      <c r="AB88">
+        <v>0.11</v>
+      </c>
+      <c r="AC88">
+        <v>0</v>
+      </c>
+      <c r="AD88">
+        <v>-2.5589390456732239</v>
+      </c>
+    </row>
+    <row r="89" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W89">
+        <v>157</v>
+      </c>
+      <c r="X89">
+        <v>18</v>
+      </c>
+      <c r="Y89">
+        <v>0</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+      <c r="AA89">
+        <v>0</v>
+      </c>
+      <c r="AB89">
+        <v>0.11</v>
+      </c>
+      <c r="AC89">
+        <v>0</v>
+      </c>
+      <c r="AD89">
+        <v>-1.2984570766759624</v>
+      </c>
+    </row>
+    <row r="90" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W90">
+        <v>158</v>
+      </c>
+      <c r="X90">
+        <v>18</v>
+      </c>
+      <c r="Y90">
+        <v>0</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+      <c r="AA90">
+        <v>0</v>
+      </c>
+      <c r="AB90">
+        <v>0.11</v>
+      </c>
+      <c r="AC90">
+        <v>0</v>
+      </c>
+      <c r="AD90">
+        <v>-6.8186847142392537E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W91">
+        <v>159</v>
+      </c>
+      <c r="X91">
+        <v>18</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+      <c r="AA91">
+        <v>0</v>
+      </c>
+      <c r="AB91">
+        <v>0.11</v>
+      </c>
+      <c r="AC91">
+        <v>0</v>
+      </c>
+      <c r="AD91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W92">
+        <v>160</v>
+      </c>
+      <c r="X92">
+        <v>18</v>
+      </c>
+      <c r="Y92">
+        <v>0</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+      <c r="AA92">
+        <v>0</v>
+      </c>
+      <c r="AB92">
+        <v>0.11</v>
+      </c>
+      <c r="AC92">
+        <v>0</v>
+      </c>
+      <c r="AD92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W93">
+        <v>161</v>
+      </c>
+      <c r="X93">
+        <v>18</v>
+      </c>
+      <c r="Y93">
+        <v>0</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+      <c r="AA93">
+        <v>0</v>
+      </c>
+      <c r="AB93">
+        <v>0.11</v>
+      </c>
+      <c r="AC93">
+        <v>0</v>
+      </c>
+      <c r="AD93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W94">
+        <v>162</v>
+      </c>
+      <c r="X94">
+        <v>18</v>
+      </c>
+      <c r="Y94">
+        <v>0</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+      <c r="AA94">
+        <v>0</v>
+      </c>
+      <c r="AB94">
+        <v>0.11</v>
+      </c>
+      <c r="AC94">
+        <v>0</v>
+      </c>
+      <c r="AD94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W95">
+        <v>163</v>
+      </c>
+      <c r="X95">
+        <v>18</v>
+      </c>
+      <c r="Y95">
+        <v>0</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+      <c r="AA95">
+        <v>0</v>
+      </c>
+      <c r="AB95">
+        <v>0.11</v>
+      </c>
+      <c r="AC95">
+        <v>0</v>
+      </c>
+      <c r="AD95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W96">
+        <v>164</v>
+      </c>
+      <c r="X96">
+        <v>18</v>
+      </c>
+      <c r="Y96">
+        <v>0</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+      <c r="AA96">
+        <v>0</v>
+      </c>
+      <c r="AB96">
+        <v>0.11</v>
+      </c>
+      <c r="AC96">
+        <v>0</v>
+      </c>
+      <c r="AD96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W97">
+        <v>165</v>
+      </c>
+      <c r="X97">
+        <v>18</v>
+      </c>
+      <c r="Y97">
+        <v>0</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+      <c r="AA97">
+        <v>0</v>
+      </c>
+      <c r="AB97">
+        <v>0.11</v>
+      </c>
+      <c r="AC97">
+        <v>0</v>
+      </c>
+      <c r="AD97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W98">
+        <v>166</v>
+      </c>
+      <c r="X98">
+        <v>18</v>
+      </c>
+      <c r="Y98">
+        <v>0</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+      <c r="AA98">
+        <v>0</v>
+      </c>
+      <c r="AB98">
+        <v>0.11</v>
+      </c>
+      <c r="AC98">
+        <v>0</v>
+      </c>
+      <c r="AD98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W99">
+        <v>167</v>
+      </c>
+      <c r="X99">
+        <v>18</v>
+      </c>
+      <c r="Y99">
+        <v>0</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+      <c r="AA99">
+        <v>0</v>
+      </c>
+      <c r="AB99">
+        <v>0.11</v>
+      </c>
+      <c r="AC99">
+        <v>0</v>
+      </c>
+      <c r="AD99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W100">
+        <v>168</v>
+      </c>
+      <c r="X100">
+        <v>18</v>
+      </c>
+      <c r="Y100">
+        <v>0</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+      <c r="AA100">
+        <v>0</v>
+      </c>
+      <c r="AB100">
+        <v>0.11</v>
+      </c>
+      <c r="AC100">
+        <v>0</v>
+      </c>
+      <c r="AD100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="23:30" x14ac:dyDescent="0.25">
+      <c r="W101">
+        <v>169</v>
+      </c>
+      <c r="X101">
+        <v>18</v>
+      </c>
+      <c r="Y101">
+        <v>0</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
+      </c>
+      <c r="AA101">
+        <v>0</v>
+      </c>
+      <c r="AB101">
+        <v>0.11</v>
+      </c>
+      <c r="AC101">
+        <v>0</v>
+      </c>
+      <c r="AD101">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="W45:AD45"/>
+    <mergeCell ref="AG45:AN45"/>
+    <mergeCell ref="AQ46:AX46"/>
+    <mergeCell ref="W75:AD75"/>
+    <mergeCell ref="AG75:AN75"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F63F61-14C1-4D5E-BFC6-4E5650538EC6}">
   <dimension ref="A1:AX100"/>
   <sheetViews>
@@ -29618,11 +34610,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1703C7E0-A6DF-4072-AB5E-01314F3A9745}">
   <dimension ref="A1:AD71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AK59" sqref="AK59"/>
     </sheetView>
   </sheetViews>
@@ -30997,7 +35989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280BBA04-1076-4CC7-9079-5B224FDA90DD}">
   <dimension ref="A1:AD71"/>
   <sheetViews>
